--- a/data/trans_orig/P13A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6901</v>
+        <v>7415</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.004581664957551255</v>
+        <v>0.004581664957551254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001042428459909383</v>
+        <v>0.001084261533003559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01260035901501551</v>
+        <v>0.01353829903756104</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -762,19 +762,19 @@
         <v>14996</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8966</v>
+        <v>8891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24180</v>
+        <v>23962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03089536918274615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01847295875722576</v>
+        <v>0.01831711536723774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0498163466716797</v>
+        <v>0.04936857378605</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -783,19 +783,19 @@
         <v>17505</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11995</v>
+        <v>11013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27769</v>
+        <v>27563</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01694485461519525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01161091648388755</v>
+        <v>0.01066037557851863</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02688044442914651</v>
+        <v>0.02668076041581432</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9097</v>
+        <v>9043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28372</v>
+        <v>27420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02906313819968898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01660880277805851</v>
+        <v>0.01651099052361096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05180236764337553</v>
+        <v>0.05006453462468809</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -833,19 +833,19 @@
         <v>18111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12632</v>
+        <v>12530</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26012</v>
+        <v>26062</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03731387145064127</v>
+        <v>0.03731387145064126</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02602478504813226</v>
+        <v>0.02581434538166874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05359190924284989</v>
+        <v>0.05369421135119066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -854,19 +854,19 @@
         <v>34029</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24211</v>
+        <v>24796</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46577</v>
+        <v>47944</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03293964981216217</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02343617183716164</v>
+        <v>0.02400257474926143</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04508649178075866</v>
+        <v>0.04640886806253383</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>90886</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73741</v>
+        <v>73712</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113779</v>
+        <v>112582</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1659427795296093</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1346384871580001</v>
+        <v>0.1345866593815314</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2077415597894303</v>
+        <v>0.2055574476755741</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>170</v>
@@ -904,19 +904,19 @@
         <v>121375</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>104709</v>
+        <v>105607</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137719</v>
+        <v>138648</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.250064394926395</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2157277972036964</v>
+        <v>0.2175788674815053</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.283737509226367</v>
+        <v>0.2856512518707777</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -925,19 +925,19 @@
         <v>212261</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>188047</v>
+        <v>187996</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>237491</v>
+        <v>240166</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2054663478025268</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.182027723386797</v>
+        <v>0.1819783262499815</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2298891486088874</v>
+        <v>0.2324788119305726</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>438380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>415777</v>
+        <v>413734</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>456838</v>
+        <v>456634</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8004124173131506</v>
+        <v>0.8004124173131504</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.759143179766163</v>
+        <v>0.7554120491091738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8341129596488336</v>
+        <v>0.8337413035815395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>466</v>
@@ -975,19 +975,19 @@
         <v>330893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>309991</v>
+        <v>312009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>349192</v>
+        <v>347720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6817263644402175</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6386634918974572</v>
+        <v>0.6428206120746346</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7194282368021495</v>
+        <v>0.7163941016518107</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>917</v>
@@ -996,19 +996,19 @@
         <v>769273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>740129</v>
+        <v>741909</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>794580</v>
+        <v>797249</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7446491477701159</v>
+        <v>0.7446491477701158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7164376088813598</v>
+        <v>0.7181606008666417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7691463082739185</v>
+        <v>0.7717293848021671</v>
       </c>
     </row>
     <row r="8">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5632</v>
+        <v>5681</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002133825894896309</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01170521069279354</v>
+        <v>0.01180657170229629</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1121,19 +1121,19 @@
         <v>12257</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7170</v>
+        <v>7140</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18748</v>
+        <v>18661</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02902450772648686</v>
+        <v>0.02902450772648687</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01697941132159417</v>
+        <v>0.01690731567437317</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04439612598411339</v>
+        <v>0.04419027034763801</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -1142,19 +1142,19 @@
         <v>13283</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7656</v>
+        <v>8396</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19705</v>
+        <v>20725</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01470304152582234</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008474306352308709</v>
+        <v>0.009293344707765345</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02181124532254205</v>
+        <v>0.02294080973361447</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>6368</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2014</v>
+        <v>2561</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13599</v>
+        <v>13427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01323565699825021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00418635190382468</v>
+        <v>0.005322843346371148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02826352893049673</v>
+        <v>0.02790672529822273</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1192,19 +1192,19 @@
         <v>22696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15938</v>
+        <v>15466</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32448</v>
+        <v>31289</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05374501587000037</v>
+        <v>0.05374501587000038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03774331008221869</v>
+        <v>0.03662547135489898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07683908032154692</v>
+        <v>0.07409566590140074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1213,19 +1213,19 @@
         <v>29064</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21395</v>
+        <v>20986</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41067</v>
+        <v>40022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03217050104268169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02368139239701334</v>
+        <v>0.0232289615321539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.045457158616108</v>
+        <v>0.04429995464930245</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>79881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62999</v>
+        <v>63333</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100625</v>
+        <v>98251</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1660210319456902</v>
+        <v>0.1660210319456901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1309339784835548</v>
+        <v>0.1316280623137576</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2091334108721579</v>
+        <v>0.2041993550354509</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1263,19 +1263,19 @@
         <v>110165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93569</v>
+        <v>95143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125575</v>
+        <v>126127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2608811921519592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2215801733237547</v>
+        <v>0.2253062680182075</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2973716610103909</v>
+        <v>0.2986801736788772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>226</v>
@@ -1284,19 +1284,19 @@
         <v>190047</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>169778</v>
+        <v>167348</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>216983</v>
+        <v>216942</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2103604732392938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1879251203675446</v>
+        <v>0.1852361713723053</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2401756145550965</v>
+        <v>0.2401309179764428</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>393875</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>373932</v>
+        <v>373629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>412049</v>
+        <v>410175</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8186094851611633</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7771619926127126</v>
+        <v>0.7765309278731291</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8563808501215582</v>
+        <v>0.8524866525690518</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>385</v>
@@ -1334,19 +1334,19 @@
         <v>277164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>260343</v>
+        <v>261454</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>294539</v>
+        <v>294395</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6563492842515536</v>
+        <v>0.6563492842515537</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6165152411419048</v>
+        <v>0.6191465043716992</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6974929940611311</v>
+        <v>0.6971534300002846</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>781</v>
@@ -1355,19 +1355,19 @@
         <v>671039</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>646170</v>
+        <v>643138</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>695447</v>
+        <v>695666</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7427659841922022</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7152383604987157</v>
+        <v>0.7118825556698862</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7697825921166481</v>
+        <v>0.7700244826378291</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>8172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3412</v>
+        <v>3963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15797</v>
+        <v>16221</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01735866248549216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007247614367713351</v>
+        <v>0.008418613060209921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03355831955002294</v>
+        <v>0.03445818342366466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1480,19 +1480,19 @@
         <v>13383</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7890</v>
+        <v>7731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23975</v>
+        <v>25014</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07159339100171028</v>
+        <v>0.07159339100171026</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04220781154105759</v>
+        <v>0.04135656051840631</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1282549825762649</v>
+        <v>0.133815024908997</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -1501,19 +1501,19 @@
         <v>21554</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13850</v>
+        <v>13675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34269</v>
+        <v>32438</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03277359879670484</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02105946054737273</v>
+        <v>0.02079258557781729</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0521055460435484</v>
+        <v>0.04932257232557164</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>14291</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8045</v>
+        <v>7582</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24999</v>
+        <v>24157</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03035898580789216</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01708909576746342</v>
+        <v>0.01610542670457758</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05310567807374934</v>
+        <v>0.0513173099578746</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -1551,19 +1551,19 @@
         <v>12579</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7897</v>
+        <v>8042</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19581</v>
+        <v>18813</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.06729539098352878</v>
+        <v>0.06729539098352877</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04224345110901972</v>
+        <v>0.04302428416857524</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1047522274838332</v>
+        <v>0.1006439108939744</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>34</v>
@@ -1572,19 +1572,19 @@
         <v>26871</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>19227</v>
+        <v>18628</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>38272</v>
+        <v>37435</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04085728364997174</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02923537459592109</v>
+        <v>0.02832470762935141</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05819309088377436</v>
+        <v>0.05692025541810308</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>80224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63938</v>
+        <v>63792</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100214</v>
+        <v>98622</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1704184344624149</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1358223740173169</v>
+        <v>0.1355129535987673</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2128835803722872</v>
+        <v>0.2095017693969532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -1622,19 +1622,19 @@
         <v>49621</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39145</v>
+        <v>40397</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60641</v>
+        <v>60772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2654546493923238</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2094097124444506</v>
+        <v>0.2161076918537717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3244040976942908</v>
+        <v>0.3251066900886076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>152</v>
@@ -1643,19 +1643,19 @@
         <v>129845</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>109323</v>
+        <v>110605</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>150094</v>
+        <v>150830</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1974302263618652</v>
+        <v>0.1974302263618651</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1662260126890398</v>
+        <v>0.1681754898950794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2282197407141237</v>
+        <v>0.2293381063441549</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>368060</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>348462</v>
+        <v>347908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>386482</v>
+        <v>387441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7818639172442008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7402313891297869</v>
+        <v>0.7390545221415579</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.820998289918957</v>
+        <v>0.8230354484319424</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>174</v>
@@ -1693,19 +1693,19 @@
         <v>111345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100022</v>
+        <v>98636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124087</v>
+        <v>121465</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5956565686224372</v>
+        <v>0.5956565686224371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.535080143406127</v>
+        <v>0.5276653023246762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6638210486429387</v>
+        <v>0.6497941476711767</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>563</v>
@@ -1714,19 +1714,19 @@
         <v>479405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>454306</v>
+        <v>456757</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>499627</v>
+        <v>503833</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7289388911914584</v>
+        <v>0.7289388911914583</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6907752728144962</v>
+        <v>0.694502328907655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7596868035738629</v>
+        <v>0.7660815984857327</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>13277</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7305</v>
+        <v>6877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22757</v>
+        <v>22293</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01177205531667513</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006476761885986896</v>
+        <v>0.006097476108291859</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02017709383032375</v>
+        <v>0.01976572187000752</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1839,19 +1839,19 @@
         <v>45345</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34011</v>
+        <v>35248</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59312</v>
+        <v>58598</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05282759960048761</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03962340047609322</v>
+        <v>0.04106483963176426</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06909874116472174</v>
+        <v>0.06826716251980383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -1860,19 +1860,19 @@
         <v>58622</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46100</v>
+        <v>46992</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72941</v>
+        <v>73733</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02951450574291491</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02321001673216742</v>
+        <v>0.0236588959397377</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03672369024846001</v>
+        <v>0.03712233734722939</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>34225</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24763</v>
+        <v>23998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47091</v>
+        <v>48400</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03034515382056939</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0219554977633849</v>
+        <v>0.02127786282033153</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04175217737472377</v>
+        <v>0.04291319912577475</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -1910,19 +1910,19 @@
         <v>42430</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32719</v>
+        <v>32968</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55715</v>
+        <v>55931</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0494319010068318</v>
+        <v>0.04943190100683179</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03811852040528857</v>
+        <v>0.03840781972368797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06490815627340089</v>
+        <v>0.06516068928951538</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>100</v>
@@ -1931,19 +1931,19 @@
         <v>76655</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62825</v>
+        <v>62777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>95807</v>
+        <v>96435</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03859362967585003</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03163061261415932</v>
+        <v>0.03160631658652407</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0482356934501978</v>
+        <v>0.04855179083166634</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>196513</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>168449</v>
+        <v>169998</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>227725</v>
+        <v>225114</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1742347397891134</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1493528362251184</v>
+        <v>0.1507257124707446</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2019090334072799</v>
+        <v>0.1995938571899017</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>346</v>
@@ -1981,19 +1981,19 @@
         <v>236382</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>213805</v>
+        <v>214494</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>259128</v>
+        <v>258580</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2753881706573075</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2490854432918819</v>
+        <v>0.2498879298911759</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3018875624680049</v>
+        <v>0.3012490102996074</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>539</v>
@@ -2002,19 +2002,19 @@
         <v>432895</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>396500</v>
+        <v>395961</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>471254</v>
+        <v>469608</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2179489266043307</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1996256471875381</v>
+        <v>0.1993541900445802</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2372616966322523</v>
+        <v>0.2364331325383054</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>883846</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>852249</v>
+        <v>852098</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>912770</v>
+        <v>912204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.783648051073642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7556330120884031</v>
+        <v>0.7554994156219996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8092926509914378</v>
+        <v>0.8087915220784607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>754</v>
@@ -2052,19 +2052,19 @@
         <v>534202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>506360</v>
+        <v>509555</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>556523</v>
+        <v>559980</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6223523287353732</v>
+        <v>0.6223523287353731</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5899155586615681</v>
+        <v>0.5936377790831845</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6483565416585455</v>
+        <v>0.6523830393333505</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1623</v>
@@ -2073,19 +2073,19 @@
         <v>1418048</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1376989</v>
+        <v>1379417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1455568</v>
+        <v>1458502</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7139429379769042</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6932710304901417</v>
+        <v>0.694493623871978</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7328329766692963</v>
+        <v>0.7343105281560043</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>11869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5920</v>
+        <v>6355</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21134</v>
+        <v>22707</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02098981389311101</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01046903612543612</v>
+        <v>0.01123973399853238</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03737686535627012</v>
+        <v>0.04015791926967305</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>79</v>
@@ -2198,19 +2198,19 @@
         <v>55745</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44996</v>
+        <v>45639</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>70670</v>
+        <v>71440</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06752526806000944</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05450392986263183</v>
+        <v>0.05528367773406862</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08560412928341637</v>
+        <v>0.08653680799803426</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>90</v>
@@ -2219,19 +2219,19 @@
         <v>67614</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54357</v>
+        <v>54271</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>85530</v>
+        <v>85974</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04860846456885954</v>
+        <v>0.04860846456885953</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03907815863442624</v>
+        <v>0.03901579375810263</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06148860063846961</v>
+        <v>0.06180753220832597</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>12535</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7306</v>
+        <v>7572</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21173</v>
+        <v>21153</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02216936374306386</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01292000148757325</v>
+        <v>0.01339055401954142</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03744469479771918</v>
+        <v>0.03740938050157825</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -2269,19 +2269,19 @@
         <v>58393</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47434</v>
+        <v>47417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70673</v>
+        <v>70789</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07073280967305301</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.057457461557737</v>
+        <v>0.0574375184663246</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08560776685547539</v>
+        <v>0.08574747488210378</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>115</v>
@@ -2290,19 +2290,19 @@
         <v>70929</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59070</v>
+        <v>58841</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85447</v>
+        <v>86486</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05099162136927252</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04246585427465344</v>
+        <v>0.04230154316721577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06142925841787529</v>
+        <v>0.06217550556330278</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>104519</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85775</v>
+        <v>86435</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>126090</v>
+        <v>126657</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1848439963243753</v>
+        <v>0.1848439963243752</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1516950255029119</v>
+        <v>0.1528635843541484</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2229936713187771</v>
+        <v>0.2239971903507999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>353</v>
@@ -2340,19 +2340,19 @@
         <v>218831</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>197202</v>
+        <v>198369</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>241059</v>
+        <v>242367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.265073906069164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2388742856079636</v>
+        <v>0.240287395429377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2919984335933679</v>
+        <v>0.293582900623286</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>452</v>
@@ -2361,19 +2361,19 @@
         <v>323350</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>296420</v>
+        <v>295159</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>354753</v>
+        <v>354111</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2324602040235863</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2130999135377695</v>
+        <v>0.2121932657510356</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.25503611099182</v>
+        <v>0.2545744881485711</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>436519</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>412596</v>
+        <v>414160</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>456556</v>
+        <v>456888</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.77199682603945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7296867099164175</v>
+        <v>0.7324528871723602</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8074325622663876</v>
+        <v>0.8080195251136651</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>750</v>
@@ -2411,19 +2411,19 @@
         <v>492578</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>471146</v>
+        <v>468543</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>520021</v>
+        <v>514146</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5966680161977735</v>
+        <v>0.5966680161977737</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5707067042802844</v>
+        <v>0.5675540823309356</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6299102975443058</v>
+        <v>0.6227932762892784</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1169</v>
@@ -2432,19 +2432,19 @@
         <v>929097</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>895232</v>
+        <v>895597</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>958743</v>
+        <v>957348</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6679397100382817</v>
+        <v>0.6679397100382816</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6435936983106447</v>
+        <v>0.6438559163662312</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6892521448474517</v>
+        <v>0.6882495977293847</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>3055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8637</v>
+        <v>8012</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01287716963072694</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003446203081196637</v>
+        <v>0.003357527858418263</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03640740408607438</v>
+        <v>0.03377446169708352</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -2557,19 +2557,19 @@
         <v>18039</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11520</v>
+        <v>12144</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26177</v>
+        <v>26148</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02145248198781155</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01370068347627789</v>
+        <v>0.01444263906822197</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03113142320482086</v>
+        <v>0.03109727243651607</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -2578,19 +2578,19 @@
         <v>21093</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14630</v>
+        <v>14434</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29949</v>
+        <v>29925</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0195655308086218</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01357021887008631</v>
+        <v>0.01338810949975763</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02777964936253704</v>
+        <v>0.02775707665413124</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>3920</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17393</v>
+        <v>16179</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0165259520086794</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003285936829027118</v>
+        <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0733165890921216</v>
+        <v>0.068199504648319</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -2628,19 +2628,19 @@
         <v>42669</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32585</v>
+        <v>31931</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57033</v>
+        <v>55851</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.05074452772392643</v>
+        <v>0.05074452772392642</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03875234280650797</v>
+        <v>0.03797398530414502</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06782701542420659</v>
+        <v>0.06642081200372488</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -2649,19 +2649,19 @@
         <v>46590</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>35421</v>
+        <v>34485</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>64654</v>
+        <v>63005</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04321491491131153</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03285529047682487</v>
+        <v>0.0319870660002347</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05997058641950918</v>
+        <v>0.05844105020192035</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>22640</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12692</v>
+        <v>12979</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38255</v>
+        <v>39069</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09543663727764347</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05350314768856999</v>
+        <v>0.05470973478020341</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1612579943584216</v>
+        <v>0.1646911501881253</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>263</v>
@@ -2699,19 +2699,19 @@
         <v>183499</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>161064</v>
+        <v>162469</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>204387</v>
+        <v>208660</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2182278321381028</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.19154609636946</v>
+        <v>0.1932172733548929</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2430682829585416</v>
+        <v>0.2481498356850531</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>278</v>
@@ -2720,19 +2720,19 @@
         <v>206140</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>180598</v>
+        <v>183541</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>235144</v>
+        <v>236819</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1912082927571683</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1675169879841205</v>
+        <v>0.1702462635877571</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2181115676068256</v>
+        <v>0.2196657137328962</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>207613</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>189982</v>
+        <v>191378</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>219033</v>
+        <v>220041</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8751602410829501</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8008427585646886</v>
+        <v>0.8067242061006705</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9233012782452138</v>
+        <v>0.9275486085889693</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>806</v>
@@ -2770,19 +2770,19 @@
         <v>596654</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>573781</v>
+        <v>570423</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>621934</v>
+        <v>620503</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7095751581501593</v>
+        <v>0.7095751581501591</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6823734127552925</v>
+        <v>0.6783798568444908</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7396390598090248</v>
+        <v>0.7379377705219486</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>898</v>
@@ -2791,19 +2791,19 @@
         <v>804267</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>771855</v>
+        <v>769739</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>831550</v>
+        <v>831082</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7460112615228983</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7159469711409634</v>
+        <v>0.7139844120119306</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7713185677077739</v>
+        <v>0.7708840386721135</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>39908</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>29580</v>
+        <v>28069</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>52873</v>
+        <v>54050</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01163461818349015</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008623489007308924</v>
+        <v>0.008183113163637611</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01541440177378397</v>
+        <v>0.0157574063538906</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>224</v>
@@ -2916,19 +2916,19 @@
         <v>159764</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>138856</v>
+        <v>138926</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>184465</v>
+        <v>183067</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04414163322394116</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03836479717915038</v>
+        <v>0.0383841811883798</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05096631935752607</v>
+        <v>0.05058005748534636</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>266</v>
@@ -2937,19 +2937,19 @@
         <v>199672</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>176185</v>
+        <v>173592</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>225770</v>
+        <v>226221</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02832442917188677</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02499269542700978</v>
+        <v>0.02462487546299933</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03202655322620906</v>
+        <v>0.0320905288914063</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>87258</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>69710</v>
+        <v>69100</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>108619</v>
+        <v>112021</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02543887704664489</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0203227766839517</v>
+        <v>0.02014496659169462</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03166624061741567</v>
+        <v>0.03265803869048819</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>305</v>
@@ -2987,19 +2987,19 @@
         <v>196879</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>174734</v>
+        <v>174839</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>222348</v>
+        <v>222592</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05439616303058251</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0482777373639441</v>
+        <v>0.04830664123255243</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06143295829737471</v>
+        <v>0.06150056921632266</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>393</v>
@@ -3008,19 +3008,19 @@
         <v>284137</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>252842</v>
+        <v>256032</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>319063</v>
+        <v>317364</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04030617966447887</v>
+        <v>0.04030617966447888</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0358667896929079</v>
+        <v>0.03631926007763085</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04526050194770155</v>
+        <v>0.04501955328963215</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>574662</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>530658</v>
+        <v>527037</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>624590</v>
+        <v>622842</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1675340516024581</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1547054686067292</v>
+        <v>0.1536496038238378</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1820896564157073</v>
+        <v>0.1815802045662778</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1359</v>
@@ -3058,19 +3058,19 @@
         <v>919874</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>874496</v>
+        <v>870306</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>963781</v>
+        <v>965417</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2541542006182833</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2416165150289623</v>
+        <v>0.2404588105261363</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2662853293267333</v>
+        <v>0.2667372458470854</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1900</v>
@@ -3079,19 +3079,19 @@
         <v>1494536</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1431233</v>
+        <v>1430739</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1560151</v>
+        <v>1559367</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2120067265946685</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2030268000113882</v>
+        <v>0.2029567819317135</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2213144912504129</v>
+        <v>0.2212032774345696</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2728292</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2673039</v>
+        <v>2676690</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2777072</v>
+        <v>2778325</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.7953924531674068</v>
+        <v>0.7953924531674067</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7792842671812372</v>
+        <v>0.7803484455998828</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8096133592323644</v>
+        <v>0.8099788370428357</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3335</v>
@@ -3129,19 +3129,19 @@
         <v>2342837</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2295368</v>
+        <v>2291650</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2396143</v>
+        <v>2393124</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6473080031271929</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6341925817480144</v>
+        <v>0.6331653304191136</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6620359232404517</v>
+        <v>0.6612017859780344</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5951</v>
@@ -3150,19 +3150,19 @@
         <v>5071130</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4999680</v>
+        <v>5004471</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5143251</v>
+        <v>5146401</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.7193626645689657</v>
+        <v>0.7193626645689658</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7092271196811177</v>
+        <v>0.7099067627611901</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7295933606880921</v>
+        <v>0.7300401483618231</v>
       </c>
     </row>
     <row r="38">
